--- a/clean_data/AMR_Clean.xlsx
+++ b/clean_data/AMR_Clean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">Parent’s age (years)</t>
   </si>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">36–45</t>
   </si>
   <si>
-    <t xml:space="preserve">Self emloyed</t>
+    <t xml:space="preserve">Self employed</t>
   </si>
   <si>
     <t xml:space="preserve">Extended family</t>
@@ -248,9 +248,6 @@
     <t xml:space="preserve">Master's</t>
   </si>
   <si>
-    <t xml:space="preserve">Self employed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Single parent family</t>
   </si>
   <si>
@@ -284,28 +281,19 @@
     <t xml:space="preserve">25–35</t>
   </si>
   <si>
+    <t xml:space="preserve">High (greater than 50000 BDT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">Low (less than 50000 BDT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High (greater than 50000 BDT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low (greater than 50000 BDT)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle (less than 30000 BDT)</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1127,7 @@
         <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
         <v>62</v>
@@ -1284,10 +1272,10 @@
         <v>77</v>
       </c>
       <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
         <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1296,10 +1284,10 @@
         <v>70</v>
       </c>
       <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
         <v>80</v>
-      </c>
-      <c r="I5" t="s">
-        <v>81</v>
       </c>
       <c r="J5" t="s">
         <v>62</v>
@@ -1429,7 +1417,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -1444,7 +1432,7 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
         <v>71</v>
@@ -1590,7 +1578,7 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -1752,7 +1740,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
@@ -1764,7 +1752,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
         <v>61</v>
@@ -1895,10 +1883,10 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
         <v>58</v>
@@ -1910,7 +1898,7 @@
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
         <v>71</v>
@@ -2059,16 +2047,16 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
         <v>55</v>
@@ -2157,7 +2145,7 @@
         <v>30</v>
       </c>
       <c r="AK10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
@@ -2222,7 +2210,7 @@
         <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
@@ -2234,7 +2222,7 @@
         <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
         <v>71</v>
@@ -2365,10 +2353,10 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>69</v>
@@ -2380,7 +2368,7 @@
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
         <v>71</v>
@@ -2512,7 +2500,7 @@
         <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>58</v>
@@ -2524,16 +2512,16 @@
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
         <v>71</v>
       </c>
       <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
         <v>87</v>
-      </c>
-      <c r="K13" t="s">
-        <v>88</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
@@ -2601,7 +2589,7 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL13" t="n">
         <v>1</v>
@@ -2657,7 +2645,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -2669,10 +2657,10 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
         <v>70</v>
@@ -2681,13 +2669,13 @@
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
         <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -2809,7 +2797,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -2818,22 +2806,22 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
         <v>62</v>
@@ -2969,7 +2957,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -2978,19 +2966,19 @@
         <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
         <v>71</v>
@@ -3129,13 +3117,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
@@ -3144,7 +3132,7 @@
         <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
         <v>70</v>
@@ -3289,22 +3277,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
         <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
         <v>70</v>
@@ -3313,7 +3301,7 @@
         <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
         <v>62</v>
@@ -3445,7 +3433,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -3454,19 +3442,19 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
         <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
         <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
         <v>71</v>
@@ -3475,7 +3463,7 @@
         <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="n">
@@ -3573,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="AS19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -3605,28 +3593,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
         <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
         <v>71</v>
@@ -3727,7 +3715,7 @@
         <v>83.3333333333333</v>
       </c>
       <c r="AS20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -3768,13 +3756,13 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
         <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
         <v>70</v>
@@ -3855,7 +3843,7 @@
         <v>80</v>
       </c>
       <c r="AK21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
@@ -3879,7 +3867,7 @@
         <v>83.3333333333333</v>
       </c>
       <c r="AS21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
@@ -3911,7 +3899,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -3920,7 +3908,7 @@
         <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>69</v>
@@ -4013,7 +4001,7 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
@@ -4069,7 +4057,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -4078,7 +4066,7 @@
         <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>69</v>
@@ -4093,7 +4081,7 @@
         <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J23" t="s">
         <v>62</v>
@@ -4169,7 +4157,7 @@
         <v>90</v>
       </c>
       <c r="AK23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AL23" t="n">
         <v>0</v>
@@ -4193,7 +4181,7 @@
         <v>83.3333333333333</v>
       </c>
       <c r="AS23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
@@ -4231,16 +4219,16 @@
         <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
         <v>70</v>
@@ -4325,7 +4313,7 @@
         <v>90</v>
       </c>
       <c r="AK24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AL24" t="n">
         <v>0</v>
@@ -4349,7 +4337,7 @@
         <v>83.3333333333333</v>
       </c>
       <c r="AS24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
@@ -4381,7 +4369,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
@@ -4390,13 +4378,13 @@
         <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
         <v>70</v>
@@ -4483,7 +4471,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL25" t="n">
         <v>0</v>
@@ -4539,7 +4527,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -4548,13 +4536,13 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
         <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
         <v>70</v>
@@ -4689,13 +4677,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
         <v>57</v>
@@ -4704,7 +4692,7 @@
         <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
         <v>70</v>
@@ -4719,7 +4707,7 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4847,7 +4835,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
@@ -4856,28 +4844,28 @@
         <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
         <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s">
         <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4947,7 +4935,7 @@
         <v>80</v>
       </c>
       <c r="AK28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
@@ -5003,28 +4991,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
         <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
         <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
         <v>71</v>
@@ -5163,7 +5151,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
@@ -5172,19 +5160,19 @@
         <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
         <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
         <v>71</v>
@@ -5193,7 +5181,7 @@
         <v>62</v>
       </c>
       <c r="K30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -5313,22 +5301,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
         <v>70</v>
@@ -5337,13 +5325,13 @@
         <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -5413,7 +5401,7 @@
         <v>90</v>
       </c>
       <c r="AK31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -5478,16 +5466,16 @@
         <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
         <v>60</v>
@@ -5499,7 +5487,7 @@
         <v>62</v>
       </c>
       <c r="K32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -5557,7 +5545,7 @@
         <v>30</v>
       </c>
       <c r="AK32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -5619,22 +5607,22 @@
         <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
         <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s">
         <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s">
         <v>71</v>
@@ -5643,7 +5631,7 @@
         <v>62</v>
       </c>
       <c r="K33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -5709,7 +5697,7 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -5774,25 +5762,25 @@
         <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
         <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s">
         <v>72</v>
@@ -5917,16 +5905,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
         <v>69</v>
@@ -5935,7 +5923,7 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
         <v>60</v>
@@ -6019,7 +6007,7 @@
         <v>80</v>
       </c>
       <c r="AK35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AL35" t="n">
         <v>1</v>
@@ -6043,7 +6031,7 @@
         <v>83.3333333333333</v>
       </c>
       <c r="AS35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
@@ -6075,7 +6063,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
@@ -6084,7 +6072,7 @@
         <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
         <v>69</v>
@@ -6093,10 +6081,10 @@
         <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s">
         <v>71</v>
@@ -6231,7 +6219,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
@@ -6246,13 +6234,13 @@
         <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s">
         <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s">
         <v>71</v>
@@ -6395,7 +6383,7 @@
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>57</v>
@@ -6410,10 +6398,10 @@
         <v>70</v>
       </c>
       <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s">
         <v>80</v>
-      </c>
-      <c r="I38" t="s">
-        <v>81</v>
       </c>
       <c r="J38" t="s">
         <v>62</v>
@@ -6551,37 +6539,37 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
         <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
         <v>70</v>
       </c>
       <c r="H39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s">
         <v>80</v>
-      </c>
-      <c r="I39" t="s">
-        <v>81</v>
       </c>
       <c r="J39" t="s">
         <v>62</v>
       </c>
       <c r="K39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -6716,7 +6704,7 @@
         <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
         <v>58</v>
@@ -6725,7 +6713,7 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -6737,7 +6725,7 @@
         <v>62</v>
       </c>
       <c r="K40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
